--- a/data/trans_camb/P57GLOBAL_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P57GLOBAL_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,25</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,08; 0,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,42; 9,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,31; -2,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,17; 1,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,74; 11,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,52; -3,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,8; 0,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,21; 9,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,94; -4,48</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,33%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,2; 1,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,07; 13,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,94; -4,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,43; 2,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,02; 15,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,09; -5,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,03; 0,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,66; 12,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,76; -5,98</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,87</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,17</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,73</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,84; 2,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,54; 18,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,35; -1,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 9,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,73; 19,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,46; -1,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 5,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,06; 18,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,55; -2,29</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,93%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,52; 4,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,07; 27,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,6; -2,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,92; 14,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,34; 29,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,62; -1,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 7,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,19; 27,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,9; -3,39</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,35; 5,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 13,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,96; -1,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,84; 8,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,47; 17,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,01; -1,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,67; 5,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,31; 13,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,43; -3,63</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,15%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,38; 7,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 21,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,96; -2,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,81; 14,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,76; 27,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,12; -3,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,36; 8,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,61; 20,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,52; -5,58</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 0,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,4; 13,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,83; -4,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 5,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,71; 14,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; -5,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 2,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,55; 13,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,31; -5,34</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,16%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,27%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,41; 0,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,22; 19,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,35; -6,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,53; 7,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,62; 20,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,67; -7,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 3,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,66; 19,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,89; -7,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57GLOBAL_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,75</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>-7,91</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,25</t>
+          <t>-8,14</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,31; -2,98</t>
+          <t>-13,61; -3,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -3,91</t>
+          <t>-11,27; -4,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,94; -4,48</t>
+          <t>-11,02; -5,36</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,22%</t>
+          <t>-11,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,05%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>-10,47%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,94; -4,02</t>
+          <t>-17,71; -5,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -5,01</t>
+          <t>-14,07; -6,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,76; -5,98</t>
+          <t>-13,99; -7,0</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-11,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-7,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-9,88</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -1,87</t>
+          <t>-31,21; -4,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -1,15</t>
+          <t>-14,66; -3,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,55; -2,29</t>
+          <t>-20,73; -5,12</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,61%</t>
+          <t>-17,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,29%</t>
+          <t>-11,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,93%</t>
+          <t>-14,46%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,6; -2,87</t>
+          <t>-46,1; -6,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -1,71</t>
+          <t>-21,22; -4,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,9; -3,39</t>
+          <t>-30,34; -7,58</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-7,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>-7,88</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>-7,91</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,96; -1,45</t>
+          <t>-13,73; -2,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,01; -1,94</t>
+          <t>-13,42; -2,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,43; -3,63</t>
+          <t>-11,9; -4,08</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,14%</t>
+          <t>-11,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,6%</t>
+          <t>-12,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-11,15%</t>
+          <t>-11,85%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,96; -2,23</t>
+          <t>-18,87; -2,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,12; -3,06</t>
+          <t>-19,74; -3,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,52; -5,58</t>
+          <t>-17,24; -6,34</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>-11,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>-9,75</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,33</t>
+          <t>-10,86</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,83; -4,54</t>
+          <t>-26,25; -6,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,05; -5,45</t>
+          <t>-14,04; -7,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -5,34</t>
+          <t>-17,77; -7,62</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,16%</t>
+          <t>-16,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,42%</t>
+          <t>-13,49%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-10,27%</t>
+          <t>-15,21%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -6,51</t>
+          <t>-36,77; -9,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,67; -7,63</t>
+          <t>-19,33; -9,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,89; -7,58</t>
+          <t>-24,84; -10,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57GLOBAL_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 0,93</t>
+          <t>-7,16; 0,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 9,82</t>
+          <t>1,65; 9,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,61; -3,7</t>
+          <t>-13,55; -3,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 1,57</t>
+          <t>-4,84; 1,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 11,75</t>
+          <t>5,45; 11,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,27; -4,66</t>
+          <t>-11,26; -4,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 0,17</t>
+          <t>-4,66; 0,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,91</t>
+          <t>5,16; 9,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,02; -5,36</t>
+          <t>-11,01; -5,4</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 1,23</t>
+          <t>-9,07; 1,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 13,36</t>
+          <t>2,17; 13,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,71; -5,01</t>
+          <t>-17,71; -5,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 2,02</t>
+          <t>-6,0; 1,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 15,26</t>
+          <t>6,75; 14,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,07; -6,01</t>
+          <t>-14,0; -5,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 0,22</t>
+          <t>-5,89; 0,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,66; 12,95</t>
+          <t>6,48; 12,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,99; -7,0</t>
+          <t>-13,96; -7,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 2,65</t>
+          <t>-3,69; 2,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,54; 18,24</t>
+          <t>12,47; 18,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,21; -4,26</t>
+          <t>-31,98; -4,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 9,84</t>
+          <t>3,71; 10,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,73; 19,47</t>
+          <t>14,41; 19,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,66; -3,26</t>
+          <t>-15,32; -3,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,2</t>
+          <t>0,86; 5,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,06; 18,06</t>
+          <t>14,2; 18,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,73; -5,12</t>
+          <t>-22,27; -5,2</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 4,03</t>
+          <t>-5,29; 3,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,07; 27,67</t>
+          <t>17,78; 27,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-46,1; -6,28</t>
+          <t>-46,71; -6,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 14,67</t>
+          <t>5,3; 15,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,34; 29,13</t>
+          <t>20,34; 29,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,22; -4,79</t>
+          <t>-22,18; -5,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,75</t>
+          <t>1,28; 7,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,19; 27,01</t>
+          <t>20,23; 27,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,34; -7,58</t>
+          <t>-32,21; -7,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 5,06</t>
+          <t>-7,19; 5,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 13,9</t>
+          <t>2,73; 13,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,73; -2,05</t>
+          <t>-13,33; -1,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 8,82</t>
+          <t>-3,89; 9,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 17,01</t>
+          <t>5,4; 17,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,42; -2,31</t>
+          <t>-13,1; -2,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 5,45</t>
+          <t>-3,74; 4,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,31; 13,34</t>
+          <t>5,87; 13,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,9; -4,08</t>
+          <t>-11,96; -3,81</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 7,65</t>
+          <t>-10,09; 7,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 21,45</t>
+          <t>3,85; 20,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,87; -2,86</t>
+          <t>-18,45; -2,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 14,11</t>
+          <t>-5,71; 16,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 27,61</t>
+          <t>7,91; 27,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,74; -3,67</t>
+          <t>-19,27; -3,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 8,46</t>
+          <t>-5,52; 7,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,61; 20,36</t>
+          <t>8,64; 21,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,24; -6,34</t>
+          <t>-17,28; -5,91</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 0,65</t>
+          <t>-3,95; 0,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,4; 13,5</t>
+          <t>9,44; 13,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,25; -6,49</t>
+          <t>-26,51; -6,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,2</t>
+          <t>0,65; 5,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,71; 14,45</t>
+          <t>10,6; 14,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,04; -7,05</t>
+          <t>-14,4; -7,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,3</t>
+          <t>-0,93; 2,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,55; 13,41</t>
+          <t>10,57; 13,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,77; -7,62</t>
+          <t>-19,81; -7,96</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 0,95</t>
+          <t>-5,5; 1,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,22; 19,59</t>
+          <t>13,21; 20,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,77; -9,25</t>
+          <t>-38,26; -9,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,53; 7,32</t>
+          <t>0,89; 7,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,62; 20,43</t>
+          <t>14,5; 20,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,33; -9,81</t>
+          <t>-19,87; -10,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,24</t>
+          <t>-1,27; 3,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,66; 19,08</t>
+          <t>14,67; 18,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,84; -10,74</t>
+          <t>-27,52; -11,16</t>
         </is>
       </c>
     </row>
